--- a/elymus_2024/ELYMUS_RFseq_mastermixcockatils.xlsx
+++ b/elymus_2024/ELYMUS_RFseq_mastermixcockatils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/elymus_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED977F-B10D-B441-B22A-9D79E861F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761D563-1D9F-7242-867B-2368E0B4DABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="26280" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="500" windowWidth="26280" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,8 +947,8 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> 480*1.3</f>
-        <v>624</v>
+        <f xml:space="preserve"> 512*1.3</f>
+        <v>665.6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>717.59999999999991</v>
+        <v>765.43999999999994</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>374.4</v>
+        <v>399.36</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>374.4</v>
+        <v>399.36</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>156</v>
+        <v>166.4</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>74.88</v>
+        <v>79.872</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>174.72000000000003</v>
+        <v>186.36800000000002</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>1872.0000000000002</v>
+        <v>1996.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>156.00000000000003</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>624</v>
+        <v>665.6</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>44.927999999999997</v>
+        <v>47.923200000000001</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>62.400000000000006</v>
+        <v>66.56</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>31.200000000000003</v>
+        <v>33.28</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>31.200000000000003</v>
+        <v>33.28</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>104.52000000000001</v>
+        <v>111.48800000000001</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>898.24800000000005</v>
+        <v>958.13120000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>74.853999999999999</v>
+        <v>79.84426666666667</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1243,10 +1243,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>6034.08</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+        <v>6436.3519999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,10 +1255,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>2496</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>2662.4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,10 +1267,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>249.60000000000002</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
+        <v>266.24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,10 +1279,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>249.60000000000002</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
+        <v>266.24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1303,11 +1291,9 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>829.92000000000007</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>45</v>
-      </c>
+        <v>885.24800000000005</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1318,10 +1304,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>124.80000000000001</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
+        <v>133.12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1333,10 +1316,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>93.6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1337,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>10077.6</v>
+        <v>10749.44</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,10 +1380,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>265.2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+        <v>282.88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1415,10 +1392,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>249.60000000000002</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
+        <v>266.24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1430,10 +1404,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>829.92000000000007</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
+        <v>885.24800000000005</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1442,7 +1413,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1344.72</v>
+        <v>1434.3679999999999</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1452,11 +1423,11 @@
       </c>
       <c r="C48" s="21">
         <f>C47/624</f>
-        <v>2.1550000000000002</v>
+        <v>2.2986666666666666</v>
       </c>
       <c r="D48" s="1">
         <f>C47/12</f>
-        <v>112.06</v>
+        <v>119.53066666666666</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -1479,7 +1450,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>779.99999999999989</v>
+        <v>832</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1500,7 +1471,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>405.59999999999997</v>
+        <v>432.64</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1519,7 +1490,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>405.59999999999997</v>
+        <v>432.64</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1538,7 +1509,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>6235.0079999999998</v>
+        <v>6650.6751999999997</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1557,7 +1528,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>74.88</v>
+        <v>79.872</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1576,7 +1547,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>174.72000000000003</v>
+        <v>186.36800000000002</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1595,7 +1566,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>624</v>
+        <v>665.6</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1614,7 +1585,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>104.52000000000001</v>
+        <v>111.48800000000001</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1632,7 +1603,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>2761.2</v>
+        <v>2945.28</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1653,7 +1624,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>499.20000000000005</v>
+        <v>532.48</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1633,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>249.60000000000002</v>
+        <v>266.24</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1671,7 +1642,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1659.8400000000001</v>
+        <v>1770.4960000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1651,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>124.80000000000001</v>
+        <v>133.12</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1689,7 +1660,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>93.6</v>
+        <v>99.84</v>
       </c>
     </row>
   </sheetData>

--- a/elymus_2024/ELYMUS_RFseq_mastermixcockatils.xlsx
+++ b/elymus_2024/ELYMUS_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/elymus_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761D563-1D9F-7242-867B-2368E0B4DABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A5701-B863-8940-AFE5-08458FFA1504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="500" windowWidth="26280" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1245,9 @@
         <f>B29*E1</f>
         <v>6436.3519999999999</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -1257,6 +1260,9 @@
         <f>4*E1</f>
         <v>2662.4</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1269,6 +1275,9 @@
         <f>B31*E1</f>
         <v>266.24</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1281,6 +1290,9 @@
         <f>B32*E1</f>
         <v>266.24</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1293,7 +1305,9 @@
         <f>B33*E1</f>
         <v>885.24800000000005</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1306,6 +1320,9 @@
         <f>B34*E1</f>
         <v>133.12</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1317,6 +1334,9 @@
       <c r="C35" s="23">
         <f>B35*E1</f>
         <v>99.84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1382,6 +1402,9 @@
         <f>E$1*B44</f>
         <v>282.88</v>
       </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -1393,6 +1416,9 @@
       <c r="C45" s="23">
         <f>E$1*B45</f>
         <v>266.24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
